--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T05:03:15+00:00</t>
+    <t>2024-11-19T08:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -384,7 +384,7 @@
   </si>
   <si>
     <t>* S-VALUE = CD-STANDARD 
-* value = always '20161201' " refering the eHealth XSD version</t>
+* value = always '20161201' " referring the eHealth XSD version</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.header.date</t>
